--- a/src/test/java/com/nopcommerce/testData/TestData.xlsx
+++ b/src/test/java/com/nopcommerce/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0A99AC07-914C-4FAC-97AA-A0448E0A9425}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6999EDAF-CD9B-45BB-99F9-BFB1552E1341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="7452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>jaidsshaikh@gmail.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>November</t>
+  </si>
+  <si>
+    <t>adad@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -395,10 +395,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -413,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -421,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -429,13 +433,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -443,15 +447,15 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
